--- a/data/case1/9/Plm2_14.xlsx
+++ b/data/case1/9/Plm2_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.12119007837671347</v>
+        <v>-0.1204449352092638</v>
       </c>
       <c r="B1" s="0">
-        <v>0.12058437519398524</v>
+        <v>0.12001252009869745</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.055374242583434707</v>
+        <v>-0.073905022829290345</v>
       </c>
       <c r="B2" s="0">
-        <v>0.053604526716609868</v>
+        <v>0.072120932331944942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10640254527249837</v>
+        <v>0.058049412124919542</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10705319056298634</v>
+        <v>-0.058541377216563717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.17693662314433922</v>
+        <v>-0.22544931194365248</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17582968633507079</v>
+        <v>0.22384274668471349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16982968705610446</v>
+        <v>-0.13974666021111393</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16759103243744367</v>
+        <v>0.13834849849425357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.066692457679035755</v>
+        <v>-0.084524263644018216</v>
       </c>
       <c r="B6" s="0">
-        <v>0.066634354325263878</v>
+        <v>0.084417706767952794</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.046634355194067112</v>
+        <v>-0.064417707607374197</v>
       </c>
       <c r="B7" s="0">
-        <v>0.046531717125869676</v>
+        <v>0.064185236026823134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.026531717999921156</v>
+        <v>-0.044185236873445</v>
       </c>
       <c r="B8" s="0">
-        <v>0.026483426104595864</v>
+        <v>0.04402787814073772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.020483426863222576</v>
+        <v>-0.038027878875413812</v>
       </c>
       <c r="B9" s="0">
-        <v>0.020452833785648217</v>
+        <v>0.037907760122791068</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.014452834547832083</v>
+        <v>-0.031907760864221757</v>
       </c>
       <c r="B10" s="0">
-        <v>0.014453808381347244</v>
+        <v>0.031897926730650283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.009953809130816893</v>
+        <v>-0.027397927459229976</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0099519237372298619</v>
+        <v>0.027379281696219948</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0039519245000776415</v>
+        <v>-0.021379282439069947</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0039318271255575077</v>
+        <v>0.021327536254316826</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0020681721104320872</v>
+        <v>-0.015327537002604252</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.002078630179556562</v>
+        <v>0.015318667205735714</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.014078629364231432</v>
+        <v>-0.0033186680066759067</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.014110607225780392</v>
+        <v>0.0033183645546497331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.020110606462990788</v>
+        <v>-0.021052275190096559</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.020164093273882244</v>
+        <v>0.021027322158857054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.026164092513324189</v>
+        <v>-0.015027322911285612</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.026291102242160136</v>
+        <v>0.015004094752339547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.032291101487100349</v>
+        <v>-0.0090040955080548102</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.032384783983859577</v>
+        <v>0.0089999992178624311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.055210133355885205</v>
+        <v>-0.03610749798323809</v>
       </c>
       <c r="B18" s="0">
-        <v>0.055139413534064374</v>
+        <v>0.03609616305802632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.046139414271990642</v>
+        <v>-0.027096163763987491</v>
       </c>
       <c r="B19" s="0">
-        <v>0.045581284268338962</v>
+        <v>0.027013169852033059</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.036581285017692977</v>
+        <v>-0.018013170564117331</v>
       </c>
       <c r="B20" s="0">
-        <v>0.036462152021428551</v>
+        <v>0.018004192156096721</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.011220927806440351</v>
+        <v>-0.0090041928690896</v>
       </c>
       <c r="B21" s="0">
-        <v>0.011207867553312933</v>
+        <v>0.0089999992863658562</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.15100707273106551</v>
+        <v>-0.093938911641354039</v>
       </c>
       <c r="B22" s="0">
-        <v>0.15008281825212677</v>
+        <v>0.09362908972877193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084632087294500558</v>
+        <v>-0.084629090446637356</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126221923269462</v>
+        <v>0.084125603221800738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126222969069538</v>
+        <v>-0.042125604234104053</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998948915263</v>
+        <v>0.041999998982228171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094898575505162341</v>
+        <v>-0.047824235567151874</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094658523378466697</v>
+        <v>0.047775855029009051</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088658524127634308</v>
+        <v>-0.041775855746511326</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088347463556210926</v>
+        <v>0.041718988247655631</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082347464309020069</v>
+        <v>-0.03571898896638892</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081277530651124863</v>
+        <v>0.035536750389821847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075277531420534949</v>
+        <v>-0.029536751114974891</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074536368157096078</v>
+        <v>0.029427225090444153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062536368988475033</v>
+        <v>-0.017427225870692453</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06216953424729077</v>
+        <v>0.017393613732483715</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042169535152137616</v>
+        <v>0.00260638541760283</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018977910208477</v>
+        <v>-0.0026765887115258735</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018978779397074</v>
+        <v>0.017676587904736252</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000566087611588</v>
+        <v>-0.017714160131898637</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005670094724906</v>
+        <v>-0.0060005649980512388</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999992064723173</v>
+        <v>0.0059999992708945626</v>
       </c>
     </row>
   </sheetData>
